--- a/Data/depth_data/deletion_inputs.xlsx
+++ b/Data/depth_data/deletion_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/CRISPResso_dev_outputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/depth_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D01EB-A63E-1348-864D-4648DE08348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670ADFDA-7F0D-5547-A8FE-8CBC2DC6596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6C4059E2-ADDE-F142-8CDC-AF586B4399B9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{6C4059E2-ADDE-F142-8CDC-AF586B4399B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,22 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>amplicon_start</t>
-  </si>
-  <si>
-    <t>amplicon_end</t>
-  </si>
-  <si>
-    <t>coding_start</t>
-  </si>
-  <si>
-    <t>coding_end</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>BARD1_X2</t>
   </si>
@@ -99,62 +84,20 @@
     <t>BARD1_X4J</t>
   </si>
   <si>
-    <t>BARD1_X5A</t>
-  </si>
-  <si>
-    <t>BARD1_X5B</t>
-  </si>
-  <si>
-    <t>BARD1_X6A</t>
-  </si>
-  <si>
-    <t>BARD1_X6B</t>
-  </si>
-  <si>
-    <t>BARD1_X7A</t>
-  </si>
-  <si>
-    <t>BARd1_X7B</t>
-  </si>
-  <si>
-    <t>BARD1_X8A</t>
-  </si>
-  <si>
-    <t>BARD1_X8B</t>
-  </si>
-  <si>
-    <t>BARD1_X9A</t>
-  </si>
-  <si>
-    <t>BARD1_X9B</t>
-  </si>
-  <si>
-    <t>BARD1_X10A</t>
-  </si>
-  <si>
-    <t>BARD1_X10B</t>
-  </si>
-  <si>
-    <t>BARD1_X11A</t>
-  </si>
-  <si>
-    <t>BARD1_X11B</t>
-  </si>
-  <si>
-    <t>BARD1_X11C</t>
-  </si>
-  <si>
-    <t>BARD1_X11D</t>
-  </si>
-  <si>
-    <t>BARD1_X6C</t>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>exon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +111,12 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,13 +134,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,392 +493,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD28E8B8-8A52-3C47-AAE9-CCDB5F9004CD}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>214809412</v>
+      </c>
+      <c r="C2">
+        <v>214809569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <v>214797061</v>
+      </c>
+      <c r="C3">
+        <v>214797117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>214792297</v>
+      </c>
+      <c r="C4">
+        <v>214792445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5">
+        <v>214780560</v>
+      </c>
+      <c r="C5">
+        <v>214781509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>214769232</v>
+      </c>
+      <c r="C6">
+        <v>214769312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>214767482</v>
+      </c>
+      <c r="C7">
+        <v>214767654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>214752447</v>
+      </c>
+      <c r="C8">
+        <v>214752555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>214809412</v>
-      </c>
-      <c r="E2" s="1">
-        <v>214809569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>214796956</v>
-      </c>
-      <c r="C3">
-        <v>214797200</v>
-      </c>
-      <c r="D3" s="1">
-        <v>214797061</v>
-      </c>
-      <c r="E3" s="1">
-        <v>214797117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>214792299</v>
-      </c>
-      <c r="C4">
-        <v>214792541</v>
-      </c>
-      <c r="D4" s="1">
-        <v>214792354</v>
-      </c>
-      <c r="E4" s="1">
-        <v>214792445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>214792354</v>
-      </c>
-      <c r="E5" s="1">
-        <v>214792445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9">
+        <v>214745722</v>
+      </c>
+      <c r="C9">
+        <v>214745854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E6" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10">
+        <v>214745067</v>
+      </c>
+      <c r="C10">
+        <v>214745159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E7" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B11">
+        <v>214730411</v>
+      </c>
+      <c r="C11">
+        <v>214730508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E8" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E9" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E10" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E11" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E12" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E13" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E14" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E15" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1">
-        <v>214780560</v>
-      </c>
-      <c r="E16" s="1">
-        <v>214781509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>214769232</v>
-      </c>
-      <c r="E17">
-        <v>214769312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>214769232</v>
-      </c>
-      <c r="E18">
-        <v>214769312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>214767482</v>
-      </c>
-      <c r="E19">
-        <v>214767654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>214767482</v>
-      </c>
-      <c r="E20">
-        <v>214767654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21">
-        <v>214767482</v>
-      </c>
-      <c r="E21">
-        <v>214767654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>214752447</v>
-      </c>
-      <c r="E22">
-        <v>214752555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>214752447</v>
-      </c>
-      <c r="E23">
-        <v>214752555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>214745722</v>
-      </c>
-      <c r="E24">
-        <v>214745854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>214745722</v>
-      </c>
-      <c r="E25">
-        <v>214745854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26">
-        <v>214745067</v>
-      </c>
-      <c r="E26">
-        <v>214745159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>214745067</v>
-      </c>
-      <c r="E27">
-        <v>214745159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>214730411</v>
-      </c>
-      <c r="E28">
-        <v>214730508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>214730411</v>
-      </c>
-      <c r="E29">
-        <v>214730508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30">
+      <c r="B12">
         <v>214728676</v>
       </c>
-      <c r="E30">
-        <v>214729008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>214728676</v>
-      </c>
-      <c r="E31">
-        <v>214729008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32">
-        <v>214728676</v>
-      </c>
-      <c r="E32">
-        <v>214729008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33">
-        <v>214728676</v>
-      </c>
-      <c r="E33">
+      <c r="C12">
         <v>214729008</v>
       </c>
     </row>
@@ -932,7 +650,7 @@
   <sheetData>
     <row r="9" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>214780560</v>
@@ -943,7 +661,7 @@
     </row>
     <row r="10" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
         <v>214780560</v>
@@ -954,7 +672,7 @@
     </row>
     <row r="11" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>214780560</v>
@@ -965,7 +683,7 @@
     </row>
     <row r="12" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1">
         <v>214780560</v>
@@ -976,7 +694,7 @@
     </row>
     <row r="13" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1">
         <v>214780560</v>
@@ -987,7 +705,7 @@
     </row>
     <row r="14" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>214780560</v>
@@ -998,7 +716,7 @@
     </row>
     <row r="15" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>214780560</v>
@@ -1009,7 +727,7 @@
     </row>
     <row r="16" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1">
         <v>214780560</v>
@@ -1020,7 +738,7 @@
     </row>
     <row r="17" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1">
         <v>214780560</v>
@@ -1031,7 +749,7 @@
     </row>
     <row r="18" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1">
         <v>214780560</v>
@@ -1042,7 +760,7 @@
     </row>
     <row r="20" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
         <v>214809412</v>
@@ -1053,7 +771,7 @@
     </row>
     <row r="21" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>214796956</v>
@@ -1070,7 +788,7 @@
     </row>
     <row r="22" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>214792299</v>
@@ -1087,7 +805,7 @@
     </row>
     <row r="23" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
         <v>214792354</v>
@@ -1098,7 +816,7 @@
     </row>
     <row r="24" spans="4:8" ht="17" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1">
         <v>214780560</v>
